--- a/static/questions.xlsx
+++ b/static/questions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VsCodeProjects\examination-system-backend\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCodeProjects\examination-system-backend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BEC021-2A98-436D-9F45-F21A6DAE8533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F1E20-FF4A-4DE4-8A87-8C0349C89A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="6810" windowWidth="20910" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10650" yWindow="7440" windowWidth="30360" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="47">
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +58,134 @@
   <si>
     <t>color</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.png</t>
+  </si>
+  <si>
+    <t>3.png</t>
+  </si>
+  <si>
+    <t>4.png</t>
+  </si>
+  <si>
+    <t>5.png</t>
+  </si>
+  <si>
+    <t>6.png</t>
+  </si>
+  <si>
+    <t>7.png</t>
+  </si>
+  <si>
+    <t>8.png</t>
+  </si>
+  <si>
+    <t>9.png</t>
+  </si>
+  <si>
+    <t>10.png</t>
+  </si>
+  <si>
+    <t>11.png</t>
+  </si>
+  <si>
+    <t>12.png</t>
+  </si>
+  <si>
+    <t>13.png</t>
+  </si>
+  <si>
+    <t>14.png</t>
+  </si>
+  <si>
+    <t>15.png</t>
+  </si>
+  <si>
+    <t>16.png</t>
+  </si>
+  <si>
+    <t>17.png</t>
+  </si>
+  <si>
+    <t>18.png</t>
+  </si>
+  <si>
+    <t>19.png</t>
+  </si>
+  <si>
+    <t>20.png</t>
+  </si>
+  <si>
+    <t>21.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.png</t>
+  </si>
+  <si>
+    <t>23.png</t>
+  </si>
+  <si>
+    <t>24.png</t>
+  </si>
+  <si>
+    <t>25.png</t>
+  </si>
+  <si>
+    <t>26.png</t>
+  </si>
+  <si>
+    <t>27.png</t>
+  </si>
+  <si>
+    <t>28.png</t>
+  </si>
+  <si>
+    <t>29.png</t>
+  </si>
+  <si>
+    <t>30.png</t>
   </si>
 </sst>
 </file>
@@ -381,13 +510,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -413,6 +545,466 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -420,4 +1012,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE6B2D-F2AB-4373-88C0-EE200A8819CF}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/questions.xlsx
+++ b/static/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCodeProjects\examination-system-backend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F1E20-FF4A-4DE4-8A87-8C0349C89A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C523480-2645-4A7F-A2A3-F560CE1510B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="7440" windowWidth="30360" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="4305" windowWidth="30360" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,35 +157,12 @@
     <t>20.png</t>
   </si>
   <si>
-    <t>21.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.png</t>
-  </si>
-  <si>
-    <t>23.png</t>
-  </si>
-  <si>
-    <t>24.png</t>
-  </si>
-  <si>
-    <t>25.png</t>
-  </si>
-  <si>
-    <t>26.png</t>
-  </si>
-  <si>
-    <t>27.png</t>
-  </si>
-  <si>
-    <t>28.png</t>
-  </si>
-  <si>
-    <t>29.png</t>
-  </si>
-  <si>
-    <t>30.png</t>
+    <t>正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,12 +490,12 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -564,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -587,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -610,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -656,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -679,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -725,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -748,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -771,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -840,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -863,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -909,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -932,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -978,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1001,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -1019,12 +996,12 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1055,13 +1032,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1072,16 +1049,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -1089,16 +1066,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1106,16 +1083,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1123,13 +1100,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1140,16 +1117,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1157,13 +1134,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1174,13 +1151,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1191,13 +1168,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1208,16 +1185,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>

--- a/static/questions.xlsx
+++ b/static/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCodeProjects\examination-system-backend\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VsCodeProjects\examination-system-backend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C523480-2645-4A7F-A2A3-F560CE1510B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC808EBB-678B-429B-BE8D-5CB01AC15730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="4305" windowWidth="30360" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15375" yWindow="150" windowWidth="20910" windowHeight="14895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="259">
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,666 @@
   <si>
     <t>错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.png</t>
+  </si>
+  <si>
+    <t>22.png</t>
+  </si>
+  <si>
+    <t>23.png</t>
+  </si>
+  <si>
+    <t>24.png</t>
+  </si>
+  <si>
+    <t>25.png</t>
+  </si>
+  <si>
+    <t>26.png</t>
+  </si>
+  <si>
+    <t>27.png</t>
+  </si>
+  <si>
+    <t>28.png</t>
+  </si>
+  <si>
+    <t>29.png</t>
+  </si>
+  <si>
+    <t>30.png</t>
+  </si>
+  <si>
+    <t>31.png</t>
+  </si>
+  <si>
+    <t>32.png</t>
+  </si>
+  <si>
+    <t>33.png</t>
+  </si>
+  <si>
+    <t>34.png</t>
+  </si>
+  <si>
+    <t>35.png</t>
+  </si>
+  <si>
+    <t>36.png</t>
+  </si>
+  <si>
+    <t>37.png</t>
+  </si>
+  <si>
+    <t>38.png</t>
+  </si>
+  <si>
+    <t>39.png</t>
+  </si>
+  <si>
+    <t>40.png</t>
+  </si>
+  <si>
+    <t>41.png</t>
+  </si>
+  <si>
+    <t>42.png</t>
+  </si>
+  <si>
+    <t>43.png</t>
+  </si>
+  <si>
+    <t>44.png</t>
+  </si>
+  <si>
+    <t>45.png</t>
+  </si>
+  <si>
+    <t>46.png</t>
+  </si>
+  <si>
+    <t>47.png</t>
+  </si>
+  <si>
+    <t>48.png</t>
+  </si>
+  <si>
+    <t>49.png</t>
+  </si>
+  <si>
+    <t>50.png</t>
+  </si>
+  <si>
+    <t>51.png</t>
+  </si>
+  <si>
+    <t>52.png</t>
+  </si>
+  <si>
+    <t>53.png</t>
+  </si>
+  <si>
+    <t>54.png</t>
+  </si>
+  <si>
+    <t>55.png</t>
+  </si>
+  <si>
+    <t>56.png</t>
+  </si>
+  <si>
+    <t>57.png</t>
+  </si>
+  <si>
+    <t>58.png</t>
+  </si>
+  <si>
+    <t>59.png</t>
+  </si>
+  <si>
+    <t>60.png</t>
+  </si>
+  <si>
+    <t>61.png</t>
+  </si>
+  <si>
+    <t>62.png</t>
+  </si>
+  <si>
+    <t>63.png</t>
+  </si>
+  <si>
+    <t>64.png</t>
+  </si>
+  <si>
+    <t>65.png</t>
+  </si>
+  <si>
+    <t>66.png</t>
+  </si>
+  <si>
+    <t>67.png</t>
+  </si>
+  <si>
+    <t>68.png</t>
+  </si>
+  <si>
+    <t>69.png</t>
+  </si>
+  <si>
+    <t>70.png</t>
+  </si>
+  <si>
+    <t>71.png</t>
+  </si>
+  <si>
+    <t>72.png</t>
+  </si>
+  <si>
+    <t>73.png</t>
+  </si>
+  <si>
+    <t>74.png</t>
+  </si>
+  <si>
+    <t>75.png</t>
+  </si>
+  <si>
+    <t>76.png</t>
+  </si>
+  <si>
+    <t>77.png</t>
+  </si>
+  <si>
+    <t>78.png</t>
+  </si>
+  <si>
+    <t>79.png</t>
+  </si>
+  <si>
+    <t>80.png</t>
+  </si>
+  <si>
+    <t>81.png</t>
+  </si>
+  <si>
+    <t>82.png</t>
+  </si>
+  <si>
+    <t>83.png</t>
+  </si>
+  <si>
+    <t>84.png</t>
+  </si>
+  <si>
+    <t>85.png</t>
+  </si>
+  <si>
+    <t>86.png</t>
+  </si>
+  <si>
+    <t>87.png</t>
+  </si>
+  <si>
+    <t>88.png</t>
+  </si>
+  <si>
+    <t>89.png</t>
+  </si>
+  <si>
+    <t>90.png</t>
+  </si>
+  <si>
+    <t>91.png</t>
+  </si>
+  <si>
+    <t>92.png</t>
+  </si>
+  <si>
+    <t>93.png</t>
+  </si>
+  <si>
+    <t>94.png</t>
+  </si>
+  <si>
+    <t>95.png</t>
+  </si>
+  <si>
+    <t>96.png</t>
+  </si>
+  <si>
+    <t>97.png</t>
+  </si>
+  <si>
+    <t>98.png</t>
+  </si>
+  <si>
+    <t>99.png</t>
+  </si>
+  <si>
+    <t>100.png</t>
+  </si>
+  <si>
+    <t>101.png</t>
+  </si>
+  <si>
+    <t>102.png</t>
+  </si>
+  <si>
+    <t>103.png</t>
+  </si>
+  <si>
+    <t>104.png</t>
+  </si>
+  <si>
+    <t>105.png</t>
+  </si>
+  <si>
+    <t>106.png</t>
+  </si>
+  <si>
+    <t>107.png</t>
+  </si>
+  <si>
+    <t>108.png</t>
+  </si>
+  <si>
+    <t>109.png</t>
+  </si>
+  <si>
+    <t>110.png</t>
+  </si>
+  <si>
+    <t>111.png</t>
+  </si>
+  <si>
+    <t>112.png</t>
+  </si>
+  <si>
+    <t>113.png</t>
+  </si>
+  <si>
+    <t>114.png</t>
+  </si>
+  <si>
+    <t>115.png</t>
+  </si>
+  <si>
+    <t>116.png</t>
+  </si>
+  <si>
+    <t>117.png</t>
+  </si>
+  <si>
+    <t>118.png</t>
+  </si>
+  <si>
+    <t>119.png</t>
+  </si>
+  <si>
+    <t>120.png</t>
+  </si>
+  <si>
+    <t>121.png</t>
+  </si>
+  <si>
+    <t>122.png</t>
+  </si>
+  <si>
+    <t>123.png</t>
+  </si>
+  <si>
+    <t>124.png</t>
+  </si>
+  <si>
+    <t>125.png</t>
+  </si>
+  <si>
+    <t>126.png</t>
+  </si>
+  <si>
+    <t>127.png</t>
+  </si>
+  <si>
+    <t>128.png</t>
+  </si>
+  <si>
+    <t>129.png</t>
+  </si>
+  <si>
+    <t>130.png</t>
+  </si>
+  <si>
+    <t>131.png</t>
+  </si>
+  <si>
+    <t>132.png</t>
+  </si>
+  <si>
+    <t>133.png</t>
+  </si>
+  <si>
+    <t>134.png</t>
+  </si>
+  <si>
+    <t>135.png</t>
+  </si>
+  <si>
+    <t>136.png</t>
+  </si>
+  <si>
+    <t>137.png</t>
+  </si>
+  <si>
+    <t>138.png</t>
+  </si>
+  <si>
+    <t>139.png</t>
+  </si>
+  <si>
+    <t>140.png</t>
+  </si>
+  <si>
+    <t>141.png</t>
+  </si>
+  <si>
+    <t>142.png</t>
+  </si>
+  <si>
+    <t>143.png</t>
+  </si>
+  <si>
+    <t>144.png</t>
+  </si>
+  <si>
+    <t>145.png</t>
+  </si>
+  <si>
+    <t>146.png</t>
+  </si>
+  <si>
+    <t>147.png</t>
+  </si>
+  <si>
+    <t>148.png</t>
+  </si>
+  <si>
+    <t>149.png</t>
+  </si>
+  <si>
+    <t>150.png</t>
+  </si>
+  <si>
+    <t>151.png</t>
+  </si>
+  <si>
+    <t>152.png</t>
+  </si>
+  <si>
+    <t>153.png</t>
+  </si>
+  <si>
+    <t>154.png</t>
+  </si>
+  <si>
+    <t>155.png</t>
+  </si>
+  <si>
+    <t>156.png</t>
+  </si>
+  <si>
+    <t>157.png</t>
+  </si>
+  <si>
+    <t>158.png</t>
+  </si>
+  <si>
+    <t>159.png</t>
+  </si>
+  <si>
+    <t>160.png</t>
+  </si>
+  <si>
+    <t>161.png</t>
+  </si>
+  <si>
+    <t>162.png</t>
+  </si>
+  <si>
+    <t>163.png</t>
+  </si>
+  <si>
+    <t>164.png</t>
+  </si>
+  <si>
+    <t>165.png</t>
+  </si>
+  <si>
+    <t>166.png</t>
+  </si>
+  <si>
+    <t>167.png</t>
+  </si>
+  <si>
+    <t>168.png</t>
+  </si>
+  <si>
+    <t>169.png</t>
+  </si>
+  <si>
+    <t>170.png</t>
+  </si>
+  <si>
+    <t>171.png</t>
+  </si>
+  <si>
+    <t>172.png</t>
+  </si>
+  <si>
+    <t>173.png</t>
+  </si>
+  <si>
+    <t>174.png</t>
+  </si>
+  <si>
+    <t>175.png</t>
+  </si>
+  <si>
+    <t>176.png</t>
+  </si>
+  <si>
+    <t>177.png</t>
+  </si>
+  <si>
+    <t>178.png</t>
+  </si>
+  <si>
+    <t>179.png</t>
+  </si>
+  <si>
+    <t>180.png</t>
+  </si>
+  <si>
+    <t>181.png</t>
+  </si>
+  <si>
+    <t>182.png</t>
+  </si>
+  <si>
+    <t>183.png</t>
+  </si>
+  <si>
+    <t>184.png</t>
+  </si>
+  <si>
+    <t>185.png</t>
+  </si>
+  <si>
+    <t>186.png</t>
+  </si>
+  <si>
+    <t>187.png</t>
+  </si>
+  <si>
+    <t>188.png</t>
+  </si>
+  <si>
+    <t>189.png</t>
+  </si>
+  <si>
+    <t>190.png</t>
+  </si>
+  <si>
+    <t>191.png</t>
+  </si>
+  <si>
+    <t>192.png</t>
+  </si>
+  <si>
+    <t>193.png</t>
+  </si>
+  <si>
+    <t>194.png</t>
+  </si>
+  <si>
+    <t>195.png</t>
+  </si>
+  <si>
+    <t>196.png</t>
+  </si>
+  <si>
+    <t>197.png</t>
+  </si>
+  <si>
+    <t>198.png</t>
+  </si>
+  <si>
+    <t>199.png</t>
+  </si>
+  <si>
+    <t>200.png</t>
+  </si>
+  <si>
+    <t>201.png</t>
+  </si>
+  <si>
+    <t>202.png</t>
+  </si>
+  <si>
+    <t>203.png</t>
+  </si>
+  <si>
+    <t>204.png</t>
+  </si>
+  <si>
+    <t>205.png</t>
+  </si>
+  <si>
+    <t>206.png</t>
+  </si>
+  <si>
+    <t>207.png</t>
+  </si>
+  <si>
+    <t>208.png</t>
+  </si>
+  <si>
+    <t>209.png</t>
+  </si>
+  <si>
+    <t>210.png</t>
+  </si>
+  <si>
+    <t>211.png</t>
+  </si>
+  <si>
+    <t>212.png</t>
+  </si>
+  <si>
+    <t>213.png</t>
+  </si>
+  <si>
+    <t>214.png</t>
+  </si>
+  <si>
+    <t>215.png</t>
+  </si>
+  <si>
+    <t>216.png</t>
+  </si>
+  <si>
+    <t>217.png</t>
+  </si>
+  <si>
+    <t>218.png</t>
+  </si>
+  <si>
+    <t>219.png</t>
+  </si>
+  <si>
+    <t>220.png</t>
+  </si>
+  <si>
+    <t>221.png</t>
+  </si>
+  <si>
+    <t>222.png</t>
+  </si>
+  <si>
+    <t>223.png</t>
+  </si>
+  <si>
+    <t>224.png</t>
+  </si>
+  <si>
+    <t>225.png</t>
+  </si>
+  <si>
+    <t>226.png</t>
+  </si>
+  <si>
+    <t>227.png</t>
+  </si>
+  <si>
+    <t>228.png</t>
+  </si>
+  <si>
+    <t>229.png</t>
+  </si>
+  <si>
+    <t>230.png</t>
+  </si>
+  <si>
+    <t>231.png</t>
+  </si>
+  <si>
+    <t>232.png</t>
+  </si>
+  <si>
+    <t>233.png</t>
+  </si>
+  <si>
+    <t>234.png</t>
+  </si>
+  <si>
+    <t>235.png</t>
+  </si>
+  <si>
+    <t>236.png</t>
+  </si>
+  <si>
+    <t>237.png</t>
+  </si>
+  <si>
+    <t>238.png</t>
+  </si>
+  <si>
+    <t>239.png</t>
+  </si>
+  <si>
+    <t>240.png</t>
   </si>
 </sst>
 </file>
@@ -487,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,6 +1644,5043 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>147</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>166</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>168</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>172</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>177</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>178</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>184</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>185</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>186</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>187</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>189</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>190</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>191</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>194</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>195</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>198</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>199</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>203</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>204</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>205</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" t="s">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>207</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>208</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>209</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>210</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>211</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>212</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>213</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>214</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>215</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>216</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>217</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" t="s">
+        <v>16</v>
+      </c>
+      <c r="H199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" t="s">
+        <v>16</v>
+      </c>
+      <c r="H201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>221</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>222</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" t="s">
+        <v>16</v>
+      </c>
+      <c r="H205" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s">
+        <v>16</v>
+      </c>
+      <c r="H206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>226</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>227</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" t="s">
+        <v>16</v>
+      </c>
+      <c r="H209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>228</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" t="s">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>231</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>232</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214" t="s">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>234</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>235</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>236</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" t="s">
+        <v>11</v>
+      </c>
+      <c r="F218" t="s">
+        <v>16</v>
+      </c>
+      <c r="H218" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H219" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>238</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" t="s">
+        <v>16</v>
+      </c>
+      <c r="H220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>239</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>240</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" t="s">
+        <v>15</v>
+      </c>
+      <c r="H222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>241</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>242</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>243</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" t="s">
+        <v>11</v>
+      </c>
+      <c r="F225" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>244</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>245</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" t="s">
+        <v>11</v>
+      </c>
+      <c r="F227" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>246</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>247</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>248</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>249</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>250</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232" t="s">
+        <v>11</v>
+      </c>
+      <c r="F232" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>251</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>252</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>253</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235" t="s">
+        <v>16</v>
+      </c>
+      <c r="H235" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>254</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>255</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" t="s">
+        <v>11</v>
+      </c>
+      <c r="F237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>256</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" t="s">
+        <v>15</v>
+      </c>
+      <c r="H238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>257</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>258</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -993,10 +6690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE6B2D-F2AB-4373-88C0-EE200A8819CF}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1200,8 +6897,1879 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>